--- a/myapp/files/9_MethodComparePercent/Scenario 314.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 314.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>5889</v>
+        <v>12771</v>
       </c>
       <c r="F2" t="n">
-        <v>8.02283285424302</v>
+        <v>2.52044121042753</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="n">
         <v>2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>5.26315789473684</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>7975</v>
+        <v>15996</v>
       </c>
       <c r="F3" t="n">
-        <v>10.8646785553724</v>
+        <v>3.1569162635658</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>7.89473684210526</v>
+        <v>2.8</v>
       </c>
       <c r="K3" t="n">
         <v>3</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>8687</v>
+        <v>13402</v>
       </c>
       <c r="F4" t="n">
-        <v>11.8346661580589</v>
+        <v>2.64497322857645</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1.63934426229508</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>7.89473684210526</v>
+        <v>2.8</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>9891</v>
+        <v>15290</v>
       </c>
       <c r="F5" t="n">
-        <v>13.474926092939</v>
+        <v>3.01758249999507</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -707,10 +707,10 @@
         <v>3.27868852459016</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>13.1578947368421</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>8036</v>
+        <v>10690</v>
       </c>
       <c r="F6" t="n">
-        <v>10.9477814258273</v>
+        <v>2.10974211412343</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>10.5263157894737</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
         <v>3</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6683</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.31893419538699</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>15467</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3.05251461919056</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -821,10 +821,10 @@
         <v>3.27868852459016</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>840</v>
+        <v>18829</v>
       </c>
       <c r="F9" t="n">
-        <v>1.14436739642794</v>
+        <v>3.71602752729935</v>
       </c>
       <c r="G9" t="n">
         <v>8</v>
@@ -859,10 +859,10 @@
         <v>13.1147540983607</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>2.63157894736842</v>
+        <v>4.8</v>
       </c>
       <c r="K9" t="n">
         <v>3</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>3634</v>
+        <v>22592</v>
       </c>
       <c r="F10" t="n">
-        <v>4.95075133168944</v>
+        <v>4.45868043426348</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -897,16 +897,16 @@
         <v>4.91803278688525</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5.26315789473684</v>
+        <v>6</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L10" t="n">
-        <v>8.19672131147541</v>
+        <v>9.83606557377049</v>
       </c>
     </row>
     <row r="11">
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>1782</v>
+        <v>13961</v>
       </c>
       <c r="F11" t="n">
-        <v>2.42769369099356</v>
+        <v>2.75529557112041</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,16 +935,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>2.63157894736842</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>6.55737704918033</v>
+        <v>4.91803278688525</v>
       </c>
     </row>
     <row r="12">
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>5477</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.08092212900412</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -973,10 +973,10 @@
         <v>1.63934426229508</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>26339</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>5.19817563553761</v>
       </c>
       <c r="G13" t="n">
         <v>4</v>
@@ -1011,10 +1011,10 @@
         <v>6.55737704918033</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>5342</v>
+        <v>61002</v>
       </c>
       <c r="F14" t="n">
-        <v>7.27763170442625</v>
+        <v>12.0391476562916</v>
       </c>
       <c r="G14" t="n">
         <v>12</v>
@@ -1049,10 +1049,10 @@
         <v>19.672131147541</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="J14" t="n">
-        <v>15.7894736842105</v>
+        <v>11.2</v>
       </c>
       <c r="K14" t="n">
         <v>11</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>9833</v>
+        <v>57189</v>
       </c>
       <c r="F15" t="n">
-        <v>13.3959102488999</v>
+        <v>11.2866269190463</v>
       </c>
       <c r="G15" t="n">
         <v>12</v>
@@ -1087,10 +1087,10 @@
         <v>19.672131147541</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J15" t="n">
-        <v>13.1578947368421</v>
+        <v>10</v>
       </c>
       <c r="K15" t="n">
         <v>10</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>3988</v>
+        <v>30932</v>
       </c>
       <c r="F16" t="n">
-        <v>5.4330204487555</v>
+        <v>6.10463452516987</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -1125,10 +1125,10 @@
         <v>3.27868852459016</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>5.26315789473684</v>
+        <v>4.8</v>
       </c>
       <c r="K16" t="n">
         <v>3</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>11196</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.20960455656931</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1163,10 +1163,10 @@
         <v>1.63934426229508</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>31355</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>6.18811636934894</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -1201,10 +1201,10 @@
         <v>3.27868852459016</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="K18" t="n">
         <v>4</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>40542</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>8.0012315052191</v>
       </c>
       <c r="G19" t="n">
         <v>7</v>
@@ -1239,10 +1239,10 @@
         <v>11.4754098360656</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="K19" t="n">
         <v>3</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>1584</v>
+        <v>28897</v>
       </c>
       <c r="F20" t="n">
-        <v>2.15794994754983</v>
+        <v>5.70301383272449</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1277,10 +1277,10 @@
         <v>1.63934426229508</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J20" t="n">
-        <v>2.63157894736842</v>
+        <v>6.4</v>
       </c>
       <c r="K20" t="n">
         <v>2</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>1944</v>
+        <v>18694</v>
       </c>
       <c r="F21" t="n">
-        <v>2.64839311744752</v>
+        <v>3.68938438554008</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,10 +1315,10 @@
         <v>1.63934426229508</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>2.63157894736842</v>
+        <v>3.2</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>5181</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.02250457373934</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>12887</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.54333457667995</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>2142</v>
+        <v>15225</v>
       </c>
       <c r="F24" t="n">
-        <v>2.91813686089124</v>
+        <v>3.00475432062949</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,10 +1429,10 @@
         <v>1.63934426229508</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J24" t="n">
-        <v>2.63157894736842</v>
+        <v>3.2</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>1836</v>
+        <v>10612</v>
       </c>
       <c r="F25" t="n">
-        <v>2.50126016647821</v>
+        <v>2.09434829888474</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1467,10 +1467,10 @@
         <v>1.63934426229508</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
-        <v>2.63157894736842</v>
+        <v>2.4</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>5488</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.08309305166599</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
